--- a/matlab(in-progress)/Input5_trace_backs.xlsx
+++ b/matlab(in-progress)/Input5_trace_backs.xlsx
@@ -13,7 +13,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
+  <si>
+    <t>Process1</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>ROMANIA</t>
+  </si>
+  <si>
+    <t>SLOVENIA</t>
+  </si>
+  <si>
+    <t>Cnt1</t>
+  </si>
+  <si>
+    <t>Sourcing</t>
+  </si>
+  <si>
+    <t>Week1</t>
+  </si>
+  <si>
+    <t>Amount1</t>
+  </si>
+  <si>
+    <t>Process2</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>Cnt2</t>
+  </si>
+  <si>
+    <t>Conditioning</t>
+  </si>
+  <si>
+    <t>Week2</t>
+  </si>
+  <si>
+    <t>Amount2</t>
+  </si>
+  <si>
+    <t>Process3</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>SLOVENIA</t>
+  </si>
+  <si>
+    <t>Cnt3</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Week3</t>
+  </si>
+  <si>
+    <t>Amount3</t>
+  </si>
+  <si>
+    <t>Process4</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>Cnt4</t>
+  </si>
+  <si>
+    <t>Forwarding</t>
+  </si>
+  <si>
+    <t>Week4</t>
+  </si>
+  <si>
+    <t>Amount4</t>
+  </si>
+  <si>
+    <t>Process5</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>Cnt5</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Week5</t>
+  </si>
+  <si>
+    <t>Amount5</t>
+  </si>
+  <si>
+    <t>Demand Number</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
   <si>
     <t>Process1</t>
   </si>
@@ -245,75 +404,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
@@ -322,10 +481,10 @@
         <v>712</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="G2" s="0">
         <v>1</v>
@@ -334,10 +493,10 @@
         <v>712</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="K2" s="0">
         <v>7</v>
@@ -346,10 +505,10 @@
         <v>712</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="O2" s="0">
         <v>11</v>
@@ -358,10 +517,10 @@
         <v>1623.48</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="S2" s="0">
         <v>23</v>
@@ -370,15 +529,15 @@
         <v>1854.53</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
@@ -387,10 +546,10 @@
         <v>1142.53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="G3" s="0">
         <v>1</v>
@@ -399,10 +558,10 @@
         <v>1142.53</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="K3" s="0">
         <v>5</v>
@@ -411,10 +570,10 @@
         <v>911.48000000000002</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="O3" s="0">
         <v>12</v>
@@ -427,7 +586,7 @@
       <c r="S3" s="0"/>
       <c r="T3" s="0"/>
       <c r="U3" s="0" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -440,10 +599,10 @@
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="K4" s="0">
         <v>6</v>
@@ -460,15 +619,15 @@
       <c r="S4" s="0"/>
       <c r="T4" s="0"/>
       <c r="U4" s="0" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C5" s="0">
         <v>1</v>
@@ -477,10 +636,10 @@
         <v>352.80999999999995</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="G5" s="0">
         <v>1</v>
@@ -489,10 +648,10 @@
         <v>352.80999999999995</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="K5" s="0">
         <v>10</v>
@@ -501,10 +660,10 @@
         <v>352.80999999999995</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="O5" s="0">
         <v>14</v>
@@ -513,10 +672,10 @@
         <v>673.09999999999991</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="S5" s="0">
         <v>24</v>
@@ -525,15 +684,15 @@
         <v>673.09999999999991</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C6" s="0">
         <v>1</v>
@@ -542,10 +701,10 @@
         <v>320.28999999999996</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="G6" s="0">
         <v>1</v>
@@ -554,10 +713,10 @@
         <v>320.28999999999996</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="K6" s="0">
         <v>9</v>
@@ -574,15 +733,15 @@
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
       <c r="U6" s="0" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0">
         <v>1</v>
@@ -591,10 +750,10 @@
         <v>124.3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="G7" s="0">
         <v>1</v>
@@ -603,10 +762,10 @@
         <v>124.3</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="K7" s="0">
         <v>4</v>
@@ -615,10 +774,10 @@
         <v>124.3</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="O7" s="0">
         <v>8</v>
@@ -627,10 +786,10 @@
         <v>124.3</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="S7" s="0">
         <v>13</v>
@@ -639,15 +798,15 @@
         <v>124.3</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C8" s="0">
         <v>1</v>
@@ -656,10 +815,10 @@
         <v>6675.8800000000001</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="G8" s="0">
         <v>1</v>
@@ -668,10 +827,10 @@
         <v>6675.8800000000001</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="K8" s="0">
         <v>10</v>
@@ -680,10 +839,10 @@
         <v>6723.0699999999997</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="O8" s="0">
         <v>14</v>
@@ -692,10 +851,10 @@
         <v>6723.0699999999997</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="S8" s="0">
         <v>18</v>
@@ -704,15 +863,15 @@
         <v>6723.0699999999997</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C9" s="0">
         <v>1</v>
@@ -721,10 +880,10 @@
         <v>47.1899999999996</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="G9" s="0">
         <v>1</v>
@@ -745,7 +904,7 @@
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="0" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
